--- a/2010.xlsx
+++ b/2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Clemson_Football_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5102DB5B-B27B-43DB-A54E-2353888C66D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E5F2EA-AB86-45D6-AFF1-7C99030BD71E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="21450" windowHeight="14670" activeTab="1" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
+    <workbookView xWindow="1695" yWindow="270" windowWidth="21450" windowHeight="14385" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Depth" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="374">
   <si>
     <t>TD</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Win?</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -1118,6 +1115,51 @@
   </si>
   <si>
     <t>Drew Traylor</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Unranked</t>
+  </si>
+  <si>
+    <t>Presbyterian</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Away</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>Wake</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>USF</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1460,6 +1502,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3059,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C53284-FF89-E74F-A4E7-AC50B8F7C354}">
-  <dimension ref="A1:T128"/>
+  <dimension ref="A1:T137"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B105"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3159,13 +3204,13 @@
         <v>9</v>
       </c>
       <c r="J2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="M2" s="21">
         <v>43618</v>
@@ -3174,10 +3219,10 @@
         <v>185</v>
       </c>
       <c r="O2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>76</v>
       </c>
       <c r="Q2" t="str">
         <f>MONTH(M2) &amp; "'" &amp; DAY(M2)</f>
@@ -3219,13 +3264,13 @@
         <v>83</v>
       </c>
       <c r="J3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>78</v>
-      </c>
       <c r="L3" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" s="25">
         <v>43620</v>
@@ -3234,10 +3279,10 @@
         <v>255</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" ref="Q3:Q66" si="5">MONTH(M3) &amp; "'" &amp; DAY(M3)</f>
@@ -3276,13 +3321,13 @@
         <v>41</v>
       </c>
       <c r="J4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="L4" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="M4" s="21">
         <v>43596</v>
@@ -3291,10 +3336,10 @@
         <v>210</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="5"/>
@@ -3332,10 +3377,10 @@
         <v>13</v>
       </c>
       <c r="J5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="23" t="s">
         <v>84</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>85</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>15</v>
@@ -3347,10 +3392,10 @@
         <v>200</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="5"/>
@@ -3389,13 +3434,13 @@
         <v>87</v>
       </c>
       <c r="J6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="M6" s="21">
         <v>43618</v>
@@ -3404,10 +3449,10 @@
         <v>200</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="5"/>
@@ -3445,13 +3490,13 @@
         <v>45</v>
       </c>
       <c r="J7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="23" t="s">
-        <v>91</v>
-      </c>
       <c r="L7" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M7" s="25">
         <v>43595</v>
@@ -3460,10 +3505,10 @@
         <v>200</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="5"/>
@@ -3501,10 +3546,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="L8" s="19" t="s">
         <v>15</v>
@@ -3516,10 +3561,10 @@
         <v>265</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="5"/>
@@ -3557,10 +3602,10 @@
         <v>68</v>
       </c>
       <c r="J9" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>95</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>96</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>15</v>
@@ -3572,10 +3617,10 @@
         <v>325</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="5"/>
@@ -3584,7 +3629,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3609,10 +3654,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>15</v>
@@ -3624,10 +3669,10 @@
         <v>225</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="5"/>
@@ -3663,13 +3708,13 @@
         <v>13</v>
       </c>
       <c r="J11" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="L11" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" s="25">
         <v>43618</v>
@@ -3678,10 +3723,10 @@
         <v>195</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="5"/>
@@ -3717,13 +3762,13 @@
         <v>93</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M12" s="21">
         <v>43620</v>
@@ -3732,10 +3777,10 @@
         <v>275</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="5"/>
@@ -3771,10 +3816,10 @@
         <v>10</v>
       </c>
       <c r="J13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>106</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>15</v>
@@ -3786,10 +3831,10 @@
         <v>230</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="5"/>
@@ -3825,13 +3870,13 @@
         <v>40</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M14" s="21">
         <v>43621</v>
@@ -3840,10 +3885,10 @@
         <v>260</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="5"/>
@@ -3878,10 +3923,10 @@
         <v>17</v>
       </c>
       <c r="J15" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>15</v>
@@ -3893,10 +3938,10 @@
         <v>190</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="5"/>
@@ -3932,13 +3977,13 @@
         <v>29</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="M16" s="21">
         <v>43596</v>
@@ -3947,10 +3992,10 @@
         <v>190</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="5"/>
@@ -3985,10 +4030,10 @@
         <v>45</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>15</v>
@@ -4000,10 +4045,10 @@
         <v>180</v>
       </c>
       <c r="O17" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="5"/>
@@ -4039,13 +4084,13 @@
         <v>18</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M18" s="21">
         <v>43618</v>
@@ -4054,10 +4099,10 @@
         <v>200</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="5"/>
@@ -4093,13 +4138,13 @@
         <v>37</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M19" s="25">
         <v>43617</v>
@@ -4108,10 +4153,10 @@
         <v>195</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="5"/>
@@ -4147,13 +4192,13 @@
         <v>90</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M20" s="21">
         <v>43621</v>
@@ -4162,10 +4207,10 @@
         <v>250</v>
       </c>
       <c r="O20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="P20" s="34" t="s">
-        <v>76</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="5"/>
@@ -4200,10 +4245,10 @@
         <v>24</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L21" s="23" t="s">
         <v>15</v>
@@ -4215,10 +4260,10 @@
         <v>220</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="5"/>
@@ -4253,10 +4298,10 @@
         <v>39</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L22" s="19" t="s">
         <v>15</v>
@@ -4268,10 +4313,10 @@
         <v>205</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="5"/>
@@ -4307,13 +4352,13 @@
         <v>89</v>
       </c>
       <c r="J23" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="23" t="s">
-        <v>125</v>
-      </c>
       <c r="L23" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M23" s="25">
         <v>43621</v>
@@ -4322,10 +4367,10 @@
         <v>285</v>
       </c>
       <c r="O23" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="5"/>
@@ -4361,10 +4406,10 @@
         <v>34</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L24" s="19" t="s">
         <v>15</v>
@@ -4376,10 +4421,10 @@
         <v>215</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="5"/>
@@ -4415,13 +4460,13 @@
         <v>85</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M25" s="25">
         <v>43621</v>
@@ -4430,10 +4475,10 @@
         <v>210</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P25" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" si="5"/>
@@ -4469,13 +4514,13 @@
         <v>62</v>
       </c>
       <c r="J26" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="L26" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M26" s="21">
         <v>43619</v>
@@ -4484,10 +4529,10 @@
         <v>295</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P26" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="5"/>
@@ -4522,10 +4567,10 @@
         <v>86</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L27" s="23" t="s">
         <v>15</v>
@@ -4537,10 +4582,10 @@
         <v>240</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P27" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="5"/>
@@ -4576,13 +4621,13 @@
         <v>44</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M28" s="21">
         <v>43617</v>
@@ -4591,10 +4636,10 @@
         <v>210</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="5"/>
@@ -4629,13 +4674,13 @@
         <v>65</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M29" s="25">
         <v>43618</v>
@@ -4644,10 +4689,10 @@
         <v>310</v>
       </c>
       <c r="O29" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P29" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="5"/>
@@ -4682,10 +4727,10 @@
         <v>81</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L30" s="19" t="s">
         <v>15</v>
@@ -4697,10 +4742,10 @@
         <v>160</v>
       </c>
       <c r="O30" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P30" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="5"/>
@@ -4735,10 +4780,10 @@
         <v>67</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L31" s="23" t="s">
         <v>15</v>
@@ -4750,10 +4795,10 @@
         <v>345</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P31" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="5"/>
@@ -4788,13 +4833,13 @@
         <v>39</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M32" s="21">
         <v>43617</v>
@@ -4803,10 +4848,10 @@
         <v>220</v>
       </c>
       <c r="O32" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="5"/>
@@ -4842,13 +4887,13 @@
         <v>30</v>
       </c>
       <c r="J33" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="K33" s="23" t="s">
-        <v>146</v>
-      </c>
       <c r="L33" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M33" s="25">
         <v>43618</v>
@@ -4857,10 +4902,10 @@
         <v>265</v>
       </c>
       <c r="O33" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P33" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="5"/>
@@ -4895,10 +4940,10 @@
         <v>25</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L34" s="19" t="s">
         <v>15</v>
@@ -4910,10 +4955,10 @@
         <v>150</v>
       </c>
       <c r="O34" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="P34" s="34" t="s">
-        <v>76</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="5"/>
@@ -4949,13 +4994,13 @@
         <v>21</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M35" s="25">
         <v>43621</v>
@@ -4964,10 +5009,10 @@
         <v>210</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P35" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="5"/>
@@ -5003,13 +5048,13 @@
         <v>23</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M36" s="21">
         <v>43595</v>
@@ -5018,10 +5063,10 @@
         <v>190</v>
       </c>
       <c r="O36" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P36" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="5"/>
@@ -5056,10 +5101,10 @@
         <v>52</v>
       </c>
       <c r="J37" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="K37" s="23" t="s">
         <v>153</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>154</v>
       </c>
       <c r="L37" s="23" t="s">
         <v>15</v>
@@ -5071,10 +5116,10 @@
         <v>225</v>
       </c>
       <c r="O37" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P37" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="5"/>
@@ -5109,10 +5154,10 @@
         <v>59</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L38" s="19" t="s">
         <v>15</v>
@@ -5124,10 +5169,10 @@
         <v>200</v>
       </c>
       <c r="O38" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P38" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="5"/>
@@ -5162,10 +5207,10 @@
         <v>60</v>
       </c>
       <c r="J39" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="K39" s="23" t="s">
         <v>158</v>
-      </c>
-      <c r="K39" s="23" t="s">
-        <v>159</v>
       </c>
       <c r="L39" s="23" t="s">
         <v>15</v>
@@ -5177,10 +5222,10 @@
         <v>255</v>
       </c>
       <c r="O39" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P39" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" si="5"/>
@@ -5215,10 +5260,10 @@
         <v>88</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L40" s="19" t="s">
         <v>15</v>
@@ -5230,10 +5275,10 @@
         <v>185</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P40" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q40" t="str">
         <f t="shared" si="5"/>
@@ -5269,13 +5314,13 @@
         <v>80</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M41" s="25">
         <v>43620</v>
@@ -5284,10 +5329,10 @@
         <v>220</v>
       </c>
       <c r="O41" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P41" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q41" t="str">
         <f t="shared" si="5"/>
@@ -5322,10 +5367,10 @@
         <v>69</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L42" s="19" t="s">
         <v>15</v>
@@ -5337,10 +5382,10 @@
         <v>335</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P42" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q42" t="str">
         <f t="shared" si="5"/>
@@ -5376,13 +5421,13 @@
         <v>55</v>
       </c>
       <c r="J43" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K43" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="K43" s="23" t="s">
-        <v>167</v>
-      </c>
       <c r="L43" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M43" s="25">
         <v>43621</v>
@@ -5391,10 +5436,10 @@
         <v>285</v>
       </c>
       <c r="O43" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P43" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q43" t="str">
         <f t="shared" si="5"/>
@@ -5430,13 +5475,13 @@
         <v>12</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M44" s="21">
         <v>43596</v>
@@ -5445,10 +5490,10 @@
         <v>190</v>
       </c>
       <c r="O44" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P44" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q44" t="str">
         <f t="shared" si="5"/>
@@ -5484,13 +5529,13 @@
         <v>97</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M45" s="25">
         <v>43620</v>
@@ -5499,10 +5544,10 @@
         <v>265</v>
       </c>
       <c r="O45" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P45" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="5"/>
@@ -5538,13 +5583,13 @@
         <v>61</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M46" s="21">
         <v>43623</v>
@@ -5553,10 +5598,10 @@
         <v>325</v>
       </c>
       <c r="O46" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P46" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q46" t="str">
         <f t="shared" si="5"/>
@@ -5592,13 +5637,13 @@
         <v>31</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K47" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M47" s="25">
         <v>43618</v>
@@ -5607,10 +5652,10 @@
         <v>200</v>
       </c>
       <c r="O47" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P47" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q47" t="str">
         <f t="shared" si="5"/>
@@ -5646,13 +5691,13 @@
         <v>8</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M48" s="28">
         <v>36678</v>
@@ -5661,10 +5706,10 @@
         <v>235</v>
       </c>
       <c r="O48" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P48" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q48" t="str">
         <f t="shared" si="5"/>
@@ -5699,13 +5744,13 @@
         <v>49</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M49" s="25">
         <v>43618</v>
@@ -5714,10 +5759,10 @@
         <v>220</v>
       </c>
       <c r="O49" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P49" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q49" t="str">
         <f t="shared" si="5"/>
@@ -5752,13 +5797,13 @@
         <v>47</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M50" s="21">
         <v>43596</v>
@@ -5767,10 +5812,10 @@
         <v>195</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P50" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q50" t="str">
         <f t="shared" si="5"/>
@@ -5806,13 +5851,13 @@
         <v>42</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M51" s="25">
         <v>43596</v>
@@ -5821,10 +5866,10 @@
         <v>230</v>
       </c>
       <c r="O51" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P51" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q51" t="str">
         <f t="shared" si="5"/>
@@ -5859,13 +5904,13 @@
         <v>51</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M52" s="21">
         <v>43617</v>
@@ -5874,10 +5919,10 @@
         <v>215</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P52" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="5"/>
@@ -5912,10 +5957,10 @@
         <v>6</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L53" s="23" t="s">
         <v>15</v>
@@ -5927,10 +5972,10 @@
         <v>195</v>
       </c>
       <c r="O53" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P53" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q53" t="str">
         <f t="shared" si="5"/>
@@ -5965,10 +6010,10 @@
         <v>22</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L54" s="19" t="s">
         <v>15</v>
@@ -5980,10 +6025,10 @@
         <v>190</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P54" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" si="5"/>
@@ -6019,13 +6064,13 @@
         <v>19</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M55" s="27">
         <v>36678</v>
@@ -6034,10 +6079,10 @@
         <v>195</v>
       </c>
       <c r="O55" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P55" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q55" t="str">
         <f t="shared" si="5"/>
@@ -6073,13 +6118,13 @@
         <v>99</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L56" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M56" s="21">
         <v>43620</v>
@@ -6088,10 +6133,10 @@
         <v>315</v>
       </c>
       <c r="O56" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P56" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q56" t="str">
         <f t="shared" si="5"/>
@@ -6126,10 +6171,10 @@
         <v>27</v>
       </c>
       <c r="J57" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K57" s="23" t="s">
         <v>193</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>194</v>
       </c>
       <c r="L57" s="23" t="s">
         <v>15</v>
@@ -6141,10 +6186,10 @@
         <v>170</v>
       </c>
       <c r="O57" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P57" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q57" t="str">
         <f t="shared" si="5"/>
@@ -6179,10 +6224,10 @@
         <v>25</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L58" s="19" t="s">
         <v>15</v>
@@ -6194,10 +6239,10 @@
         <v>170</v>
       </c>
       <c r="O58" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P58" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q58" t="str">
         <f t="shared" si="5"/>
@@ -6233,13 +6278,13 @@
         <v>26</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M59" s="27">
         <v>36678</v>
@@ -6248,10 +6293,10 @@
         <v>195</v>
       </c>
       <c r="O59" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P59" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q59" t="str">
         <f t="shared" si="5"/>
@@ -6286,13 +6331,13 @@
         <v>23</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L60" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M60" s="21">
         <v>43596</v>
@@ -6301,10 +6346,10 @@
         <v>205</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P60" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q60" t="str">
         <f t="shared" si="5"/>
@@ -6339,13 +6384,13 @@
         <v>30</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M61" s="25">
         <v>43596</v>
@@ -6354,10 +6399,10 @@
         <v>200</v>
       </c>
       <c r="O61" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P61" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q61" t="str">
         <f t="shared" si="5"/>
@@ -6392,13 +6437,13 @@
         <v>32</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M62" s="21">
         <v>43619</v>
@@ -6407,10 +6452,10 @@
         <v>215</v>
       </c>
       <c r="O62" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P62" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q62" t="str">
         <f t="shared" si="5"/>
@@ -6446,13 +6491,13 @@
         <v>36</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K63" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L63" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M63" s="25">
         <v>43617</v>
@@ -6461,10 +6506,10 @@
         <v>205</v>
       </c>
       <c r="O63" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P63" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q63" t="str">
         <f t="shared" si="5"/>
@@ -6500,13 +6545,13 @@
         <v>20</v>
       </c>
       <c r="J64" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K64" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L64" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="L64" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="M64" s="21">
         <v>43618</v>
@@ -6515,10 +6560,10 @@
         <v>235</v>
       </c>
       <c r="O64" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P64" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q64" t="str">
         <f t="shared" si="5"/>
@@ -6554,13 +6599,13 @@
         <v>74</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K65" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M65" s="25">
         <v>43621</v>
@@ -6569,10 +6614,10 @@
         <v>330</v>
       </c>
       <c r="O65" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P65" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q65" t="str">
         <f t="shared" si="5"/>
@@ -6608,13 +6653,13 @@
         <v>2</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M66" s="21">
         <v>43617</v>
@@ -6623,10 +6668,10 @@
         <v>215</v>
       </c>
       <c r="O66" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P66" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q66" t="str">
         <f t="shared" si="5"/>
@@ -6662,10 +6707,10 @@
         <v>25</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K67" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L67" s="23" t="s">
         <v>15</v>
@@ -6677,10 +6722,10 @@
         <v>185</v>
       </c>
       <c r="O67" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P67" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q67" t="str">
         <f t="shared" ref="Q67:Q105" si="16">MONTH(M67) &amp; "'" &amp; DAY(M67)</f>
@@ -6715,10 +6760,10 @@
         <v>14</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L68" s="19" t="s">
         <v>15</v>
@@ -6730,10 +6775,10 @@
         <v>205</v>
       </c>
       <c r="O68" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P68" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q68" t="str">
         <f t="shared" si="16"/>
@@ -6769,10 +6814,10 @@
         <v>7</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K69" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L69" s="23" t="s">
         <v>15</v>
@@ -6784,10 +6829,10 @@
         <v>180</v>
       </c>
       <c r="O69" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P69" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q69" t="str">
         <f t="shared" si="16"/>
@@ -6823,13 +6868,13 @@
         <v>5</v>
       </c>
       <c r="J70" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L70" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M70" s="21">
         <v>43617</v>
@@ -6838,10 +6883,10 @@
         <v>205</v>
       </c>
       <c r="O70" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P70" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="16"/>
@@ -6876,13 +6921,13 @@
         <v>56</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K71" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L71" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M71" s="25">
         <v>43619</v>
@@ -6891,10 +6936,10 @@
         <v>300</v>
       </c>
       <c r="O71" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P71" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q71" t="str">
         <f t="shared" si="16"/>
@@ -6930,13 +6975,13 @@
         <v>94</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L72" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M72" s="21">
         <v>43620</v>
@@ -6945,10 +6990,10 @@
         <v>270</v>
       </c>
       <c r="O72" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P72" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="16"/>
@@ -6984,13 +7029,13 @@
         <v>48</v>
       </c>
       <c r="J73" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K73" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M73" s="25">
         <v>43617</v>
@@ -6999,10 +7044,10 @@
         <v>250</v>
       </c>
       <c r="O73" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P73" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q73" t="str">
         <f t="shared" si="16"/>
@@ -7038,13 +7083,13 @@
         <v>64</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L74" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M74" s="21">
         <v>43620</v>
@@ -7053,10 +7098,10 @@
         <v>310</v>
       </c>
       <c r="O74" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P74" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q74" t="str">
         <f t="shared" si="16"/>
@@ -7091,10 +7136,10 @@
         <v>17</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K75" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L75" s="23" t="s">
         <v>15</v>
@@ -7106,10 +7151,10 @@
         <v>195</v>
       </c>
       <c r="O75" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P75" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q75" t="str">
         <f t="shared" si="16"/>
@@ -7144,10 +7189,10 @@
         <v>8</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L76" s="19" t="s">
         <v>15</v>
@@ -7159,10 +7204,10 @@
         <v>225</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P76" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q76" t="str">
         <f t="shared" si="16"/>
@@ -7198,13 +7243,13 @@
         <v>11</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K77" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M77" s="25">
         <v>43617</v>
@@ -7213,10 +7258,10 @@
         <v>200</v>
       </c>
       <c r="O77" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P77" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q77" t="str">
         <f t="shared" si="16"/>
@@ -7251,10 +7296,10 @@
         <v>38</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L78" s="19" t="s">
         <v>15</v>
@@ -7266,10 +7311,10 @@
         <v>185</v>
       </c>
       <c r="O78" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P78" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q78" t="str">
         <f t="shared" si="16"/>
@@ -7305,13 +7350,13 @@
         <v>79</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K79" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M79" s="25">
         <v>43621</v>
@@ -7320,10 +7365,10 @@
         <v>300</v>
       </c>
       <c r="O79" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P79" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q79" t="str">
         <f t="shared" si="16"/>
@@ -7358,10 +7403,10 @@
         <v>47</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L80" s="19" t="s">
         <v>15</v>
@@ -7373,10 +7418,10 @@
         <v>215</v>
       </c>
       <c r="O80" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P80" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q80" t="str">
         <f t="shared" si="16"/>
@@ -7412,13 +7457,13 @@
         <v>78</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K81" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M81" s="25">
         <v>43620</v>
@@ -7427,10 +7472,10 @@
         <v>280</v>
       </c>
       <c r="O81" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P81" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q81" t="str">
         <f t="shared" si="16"/>
@@ -7466,13 +7511,13 @@
         <v>79</v>
       </c>
       <c r="J82" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M82" s="21">
         <v>43618</v>
@@ -7481,10 +7526,10 @@
         <v>240</v>
       </c>
       <c r="O82" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P82" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q82" t="str">
         <f t="shared" si="16"/>
@@ -7519,10 +7564,10 @@
         <v>21</v>
       </c>
       <c r="J83" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K83" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L83" s="23" t="s">
         <v>15</v>
@@ -7534,10 +7579,10 @@
         <v>165</v>
       </c>
       <c r="O83" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P83" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q83" t="str">
         <f t="shared" si="16"/>
@@ -7573,13 +7618,13 @@
         <v>54</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M84" s="21">
         <v>43622</v>
@@ -7588,10 +7633,10 @@
         <v>320</v>
       </c>
       <c r="O84" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P84" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q84" t="str">
         <f t="shared" si="16"/>
@@ -7627,13 +7672,13 @@
         <v>15</v>
       </c>
       <c r="J85" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K85" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M85" s="27">
         <v>36678</v>
@@ -7642,10 +7687,10 @@
         <v>180</v>
       </c>
       <c r="O85" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P85" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q85" t="str">
         <f t="shared" si="16"/>
@@ -7681,10 +7726,10 @@
         <v>43</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L86" s="19" t="s">
         <v>15</v>
@@ -7696,10 +7741,10 @@
         <v>295</v>
       </c>
       <c r="O86" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P86" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q86" t="str">
         <f t="shared" si="16"/>
@@ -7735,10 +7780,10 @@
         <v>33</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K87" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L87" s="23" t="s">
         <v>15</v>
@@ -7750,10 +7795,10 @@
         <v>250</v>
       </c>
       <c r="O87" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P87" s="36" t="s">
         <v>75</v>
-      </c>
-      <c r="P87" s="36" t="s">
-        <v>76</v>
       </c>
       <c r="Q87" t="str">
         <f t="shared" si="16"/>
@@ -7789,13 +7834,13 @@
         <v>58</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L88" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M88" s="21">
         <v>43596</v>
@@ -7804,10 +7849,10 @@
         <v>255</v>
       </c>
       <c r="O88" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P88" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q88" t="str">
         <f t="shared" si="16"/>
@@ -7843,13 +7888,13 @@
         <v>71</v>
       </c>
       <c r="J89" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K89" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L89" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M89" s="25">
         <v>43623</v>
@@ -7858,10 +7903,10 @@
         <v>230</v>
       </c>
       <c r="O89" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P89" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q89" t="str">
         <f t="shared" si="16"/>
@@ -7897,10 +7942,10 @@
         <v>84</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L90" s="19" t="s">
         <v>15</v>
@@ -7912,10 +7957,10 @@
         <v>235</v>
       </c>
       <c r="O90" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P90" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q90" t="str">
         <f t="shared" si="16"/>
@@ -7951,13 +7996,13 @@
         <v>73</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K91" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M91" s="25">
         <v>43621</v>
@@ -7966,10 +8011,10 @@
         <v>315</v>
       </c>
       <c r="O91" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P91" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q91" t="str">
         <f t="shared" si="16"/>
@@ -8004,10 +8049,10 @@
         <v>48</v>
       </c>
       <c r="J92" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L92" s="19" t="s">
         <v>15</v>
@@ -8019,10 +8064,10 @@
         <v>180</v>
       </c>
       <c r="O92" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P92" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q92" t="str">
         <f t="shared" si="16"/>
@@ -8058,10 +8103,10 @@
         <v>63</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K93" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L93" s="23" t="s">
         <v>15</v>
@@ -8073,10 +8118,10 @@
         <v>300</v>
       </c>
       <c r="O93" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P93" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q93" t="str">
         <f t="shared" si="16"/>
@@ -8111,10 +8156,10 @@
         <v>95</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L94" s="19" t="s">
         <v>15</v>
@@ -8126,10 +8171,10 @@
         <v>285</v>
       </c>
       <c r="O94" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P94" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q94" t="str">
         <f t="shared" si="16"/>
@@ -8165,13 +8210,13 @@
         <v>98</v>
       </c>
       <c r="J95" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L95" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M95" s="25">
         <v>43618</v>
@@ -8180,10 +8225,10 @@
         <v>310</v>
       </c>
       <c r="O95" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P95" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q95" t="str">
         <f t="shared" si="16"/>
@@ -8218,10 +8263,10 @@
         <v>70</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L96" s="19" t="s">
         <v>15</v>
@@ -8233,10 +8278,10 @@
         <v>335</v>
       </c>
       <c r="O96" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P96" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q96" t="str">
         <f t="shared" si="16"/>
@@ -8272,13 +8317,13 @@
         <v>82</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K97" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L97" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M97" s="25">
         <v>43621</v>
@@ -8287,10 +8332,10 @@
         <v>245</v>
       </c>
       <c r="O97" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P97" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q97" t="str">
         <f t="shared" si="16"/>
@@ -8325,13 +8370,13 @@
         <v>53</v>
       </c>
       <c r="J98" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L98" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M98" s="21">
         <v>43595</v>
@@ -8340,10 +8385,10 @@
         <v>185</v>
       </c>
       <c r="O98" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P98" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q98" t="str">
         <f t="shared" si="16"/>
@@ -8379,13 +8424,13 @@
         <v>16</v>
       </c>
       <c r="J99" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K99" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L99" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M99" s="25">
         <v>43618</v>
@@ -8394,10 +8439,10 @@
         <v>210</v>
       </c>
       <c r="O99" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P99" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q99" t="str">
         <f t="shared" si="16"/>
@@ -8433,13 +8478,13 @@
         <v>72</v>
       </c>
       <c r="J100" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L100" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M100" s="21">
         <v>43622</v>
@@ -8448,10 +8493,10 @@
         <v>310</v>
       </c>
       <c r="O100" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P100" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q100" t="str">
         <f t="shared" si="16"/>
@@ -8486,10 +8531,10 @@
         <v>91</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K101" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L101" s="23" t="s">
         <v>15</v>
@@ -8501,10 +8546,10 @@
         <v>270</v>
       </c>
       <c r="O101" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P101" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q101" t="str">
         <f t="shared" si="16"/>
@@ -8539,10 +8584,10 @@
         <v>77</v>
       </c>
       <c r="J102" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L102" s="19" t="s">
         <v>15</v>
@@ -8554,10 +8599,10 @@
         <v>290</v>
       </c>
       <c r="O102" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P102" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q102" t="str">
         <f t="shared" si="16"/>
@@ -8593,13 +8638,13 @@
         <v>46</v>
       </c>
       <c r="J103" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K103" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L103" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M103" s="25">
         <v>43618</v>
@@ -8608,10 +8653,10 @@
         <v>220</v>
       </c>
       <c r="O103" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P103" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q103" t="str">
         <f t="shared" si="16"/>
@@ -8647,13 +8692,13 @@
         <v>50</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M104" s="21">
         <v>43618</v>
@@ -8662,10 +8707,10 @@
         <v>255</v>
       </c>
       <c r="O104" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P104" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q104" t="str">
         <f t="shared" si="16"/>
@@ -8701,13 +8746,13 @@
         <v>96</v>
       </c>
       <c r="J105" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K105" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="K105" s="39" t="s">
-        <v>278</v>
-      </c>
       <c r="L105" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M105" s="40">
         <v>43618</v>
@@ -8716,10 +8761,10 @@
         <v>205</v>
       </c>
       <c r="O105" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P105" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q105" t="str">
         <f t="shared" si="16"/>
@@ -8810,83 +8855,468 @@
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
     </row>
-    <row r="120" spans="1:10" ht="30.95" customHeight="1">
-      <c r="A120" s="18"/>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" t="s">
+    <row r="123" spans="1:10" ht="30.95" customHeight="1">
+      <c r="A123" s="18"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
         <v>59</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B124" t="s">
         <v>60</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C124" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D124" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E124" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F121" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G121" s="9" t="s">
+      <c r="F124" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H124" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H121" s="9" t="s">
+      <c r="I124" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I121" s="9" t="s">
+      <c r="J124" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="J121" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122">
-        <v>7</v>
-      </c>
-      <c r="E122" t="s">
-        <v>64</v>
-      </c>
-      <c r="F122" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123">
-        <v>8</v>
-      </c>
-      <c r="F123" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124">
-        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>359</v>
+      </c>
+      <c r="C125" s="9">
+        <v>35</v>
+      </c>
+      <c r="D125">
         <v>10</v>
+      </c>
+      <c r="E125" t="str">
+        <f>IF(C125&gt;D125,"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="F125" t="s">
+        <v>65</v>
+      </c>
+      <c r="G125">
+        <v>422</v>
+      </c>
+      <c r="H125">
+        <v>462</v>
+      </c>
+      <c r="I125" t="s">
+        <v>360</v>
+      </c>
+      <c r="J125" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>361</v>
+      </c>
+      <c r="C126" s="9">
+        <v>58</v>
+      </c>
+      <c r="D126">
+        <v>21</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" ref="E126:E137" si="22">IF(C126&gt;D126,"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="F126" t="s">
+        <v>65</v>
+      </c>
+      <c r="G126">
+        <v>414</v>
+      </c>
+      <c r="H126">
+        <v>279</v>
+      </c>
+      <c r="I126" t="s">
+        <v>360</v>
+      </c>
+      <c r="J126" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>362</v>
+      </c>
+      <c r="C127" s="9">
+        <v>24</v>
+      </c>
+      <c r="D127">
+        <v>27</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="22"/>
+        <v>F</v>
+      </c>
+      <c r="F127" t="s">
+        <v>363</v>
+      </c>
+      <c r="G127">
+        <v>424</v>
+      </c>
+      <c r="H127">
+        <v>407</v>
+      </c>
+      <c r="I127" t="s">
+        <v>360</v>
+      </c>
+      <c r="J127">
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>364</v>
+      </c>
+      <c r="C128" s="9">
+        <v>21</v>
+      </c>
+      <c r="D128">
+        <v>30</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="22"/>
+        <v>F</v>
+      </c>
+      <c r="F128" t="s">
+        <v>65</v>
+      </c>
+      <c r="G128">
+        <v>311</v>
+      </c>
+      <c r="H128">
+        <v>376</v>
+      </c>
+      <c r="I128" t="s">
+        <v>360</v>
+      </c>
+      <c r="J128">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>365</v>
+      </c>
+      <c r="C129" s="9">
+        <v>16</v>
+      </c>
+      <c r="D129">
+        <v>21</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="22"/>
+        <v>F</v>
+      </c>
+      <c r="F129" t="s">
+        <v>363</v>
+      </c>
+      <c r="G129">
+        <v>305</v>
+      </c>
+      <c r="H129">
+        <v>255</v>
+      </c>
+      <c r="I129" t="s">
+        <v>360</v>
+      </c>
+      <c r="J129" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>366</v>
+      </c>
+      <c r="C130" s="9">
+        <v>31</v>
+      </c>
+      <c r="D130">
+        <v>7</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F130" t="s">
+        <v>65</v>
+      </c>
+      <c r="G130">
+        <v>213</v>
+      </c>
+      <c r="H130">
+        <v>350</v>
+      </c>
+      <c r="I130" t="s">
+        <v>360</v>
+      </c>
+      <c r="J130" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>367</v>
+      </c>
+      <c r="C131" s="9">
+        <v>27</v>
+      </c>
+      <c r="D131">
         <v>13</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F131" t="s">
+        <v>65</v>
+      </c>
+      <c r="G131">
+        <v>403</v>
+      </c>
+      <c r="H131">
+        <v>325</v>
+      </c>
+      <c r="I131" t="s">
+        <v>360</v>
+      </c>
+      <c r="J131" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>368</v>
+      </c>
+      <c r="C132" s="9">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>16</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="22"/>
+        <v>F</v>
+      </c>
+      <c r="F132" t="s">
+        <v>363</v>
+      </c>
+      <c r="G132">
+        <v>264</v>
+      </c>
+      <c r="H132">
+        <v>305</v>
+      </c>
+      <c r="I132" t="s">
+        <v>360</v>
+      </c>
+      <c r="J132" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>369</v>
+      </c>
+      <c r="C133" s="9">
+        <v>14</v>
+      </c>
+      <c r="D133">
+        <v>13</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F133" t="s">
+        <v>65</v>
+      </c>
+      <c r="G133">
+        <v>260</v>
+      </c>
+      <c r="H133">
+        <v>275</v>
+      </c>
+      <c r="I133" t="s">
+        <v>360</v>
+      </c>
+      <c r="J133">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>370</v>
+      </c>
+      <c r="C134" s="9">
+        <v>13</v>
+      </c>
+      <c r="D134">
+        <v>16</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="22"/>
+        <v>F</v>
+      </c>
+      <c r="F134" t="s">
+        <v>363</v>
+      </c>
+      <c r="G134">
+        <v>391</v>
+      </c>
+      <c r="H134">
+        <v>307</v>
+      </c>
+      <c r="I134" t="s">
+        <v>360</v>
+      </c>
+      <c r="J134" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>371</v>
+      </c>
+      <c r="C135" s="9">
+        <v>30</v>
+      </c>
+      <c r="D135">
+        <v>10</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="22"/>
+        <v>T</v>
+      </c>
+      <c r="F135" t="s">
+        <v>363</v>
+      </c>
+      <c r="G135">
+        <v>413</v>
+      </c>
+      <c r="H135">
+        <v>205</v>
+      </c>
+      <c r="I135" t="s">
+        <v>360</v>
+      </c>
+      <c r="J135" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>372</v>
+      </c>
+      <c r="C136" s="9">
+        <v>7</v>
+      </c>
+      <c r="D136">
+        <v>29</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="22"/>
+        <v>F</v>
+      </c>
+      <c r="F136" t="s">
+        <v>65</v>
+      </c>
+      <c r="G136">
+        <v>251</v>
+      </c>
+      <c r="H136">
+        <v>322</v>
+      </c>
+      <c r="I136" t="s">
+        <v>360</v>
+      </c>
+      <c r="J136">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137">
+        <v>13</v>
+      </c>
+      <c r="B137" t="s">
+        <v>373</v>
+      </c>
+      <c r="C137" s="9">
+        <v>26</v>
+      </c>
+      <c r="D137">
+        <v>31</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="22"/>
+        <v>F</v>
+      </c>
+      <c r="F137" t="s">
+        <v>66</v>
+      </c>
+      <c r="G137">
+        <v>296</v>
+      </c>
+      <c r="H137">
+        <v>279</v>
+      </c>
+      <c r="I137" t="s">
+        <v>360</v>
+      </c>
+      <c r="J137" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -8963,10 +9393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8474FEF-BF61-41FA-A75B-1B2E755FF5BA}">
-  <dimension ref="A1:BR123"/>
+  <dimension ref="A1:BR132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104:J107"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:XFD105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8985,7 +9415,7 @@
         <v>50</v>
       </c>
       <c r="BG1" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:70">
@@ -9028,109 +9458,109 @@
       <c r="M2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BG2" s="45"/>
-      <c r="BH2" s="45"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="45"/>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="45"/>
-      <c r="BR2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="46"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="46"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="46"/>
+      <c r="BN2" s="46"/>
+      <c r="BO2" s="46"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="46"/>
+      <c r="BR2" s="46"/>
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,3,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,4,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,5,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,6,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,7,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,9,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,10,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,11,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,3,FALSE)</f>
+        <f>VLOOKUP(B3,$O$13:$X$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,4,FALSE)</f>
+        <f>VLOOKUP(B3,$O$13:$X$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,6,FALSE)</f>
+        <f>VLOOKUP(B3,$O$13:$X$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O3" s="43"/>
@@ -9189,53 +9619,53 @@
     </row>
     <row r="4" spans="1:70" ht="25.5">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C4" s="1" t="e">
-        <f t="shared" ref="C4:C7" si="0">VLOOKUP(B4,$O$4:$Y$12,3,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D4" s="1" t="e">
-        <f t="shared" ref="D4:D7" si="1">VLOOKUP(B4,$O$4:$Y$12,4,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E4" s="1" t="e">
-        <f t="shared" ref="E4:E7" si="2">VLOOKUP(B4,$O$4:$Y$12,5,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F4" s="1" t="e">
-        <f t="shared" ref="F4:F7" si="3">VLOOKUP(B4,$O$4:$Y$12,6,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G4" s="1" t="e">
-        <f t="shared" ref="G4:G7" si="4">VLOOKUP(B4,$O$4:$Y$12,7,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="1" t="e">
-        <f t="shared" ref="H4:H7" si="5">VLOOKUP(B4,$O$4:$Y$12,9,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I4" s="1" t="e">
-        <f t="shared" ref="I4:I7" si="6">VLOOKUP(B4,$O$4:$Y$12,10,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f t="shared" ref="J4:J7" si="7">VLOOKUP(B4,$O$4:$Y$12,11,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K4" s="1" t="e">
-        <f t="shared" ref="K4:K6" si="8">VLOOKUP(B4,$O$14:$X$36,3,FALSE)</f>
+        <f>VLOOKUP(B4,$O$13:$X$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f t="shared" ref="L4:L7" si="9">VLOOKUP(B4,$O$14:$X$36,4,FALSE)</f>
+        <f>VLOOKUP(B4,$O$13:$X$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="1" t="e">
-        <f t="shared" ref="M4:M7" si="10">VLOOKUP(B4,$O$14:$X$36,6,FALSE)</f>
+        <f>VLOOKUP(B4,$O$13:$X$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O4" s="43"/>
@@ -9294,53 +9724,53 @@
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D5" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E5" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F5" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G5" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H5" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I5" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J5" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K5" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(B5,$O$13:$X$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L5" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(B5,$O$13:$X$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M5" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(B5,$O$13:$X$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O5" s="43"/>
@@ -9399,53 +9829,53 @@
     </row>
     <row r="6" spans="1:70">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D6" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E6" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F6" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G6" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H6" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I6" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J6" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K6" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(B6,$O$13:$X$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L6" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(B6,$O$13:$X$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(B6,$O$13:$X$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O6" s="43"/>
@@ -9504,53 +9934,53 @@
     </row>
     <row r="7" spans="1:70" ht="25.5">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B7,$O$4:$Y$11,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D7" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B7,$O$4:$Y$11,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E7" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(B7,$O$4:$Y$11,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F7" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(B7,$O$4:$Y$11,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G7" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(B7,$O$4:$Y$11,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H7" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(B7,$O$4:$Y$11,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I7" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(B7,$O$4:$Y$11,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J7" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(B7,$O$4:$Y$11,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K7" s="1" t="e">
-        <f>VLOOKUP(B7,$O$14:$X$36,3,FALSE)</f>
+        <f>VLOOKUP(B7,$O$13:$X$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L7" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(B7,$O$13:$X$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M7" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(B7,$O$13:$X$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AA7" s="43"/>
@@ -9672,9 +10102,12 @@
       <c r="BD9" s="10"/>
       <c r="BE9" s="10"/>
     </row>
-    <row r="10" spans="1:70">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:70" ht="63">
+      <c r="A10" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="B10" s="43"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -9715,35 +10148,48 @@
       <c r="BD10" s="10"/>
       <c r="BE10" s="10"/>
     </row>
-    <row r="11" spans="1:70" ht="63">
-      <c r="A11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
+    <row r="11" spans="1:70">
+      <c r="A11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
       <c r="AP11" s="43"/>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
@@ -9761,48 +10207,55 @@
       <c r="BD11" s="10"/>
       <c r="BE11" s="10"/>
     </row>
-    <row r="12" spans="1:70">
-      <c r="A12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
+    <row r="12" spans="1:70" ht="25.5">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" ref="C12:C17" si="0">VLOOKUP(B12,$AA$4:$AN$36,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="e">
+        <f t="shared" ref="D12:D17" si="1">VLOOKUP(B12,$AA$4:$AN$36,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" t="e">
+        <f t="shared" ref="E12:E17" si="2">VLOOKUP(B12,$AA$4:$AN$36,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="e">
+        <f t="shared" ref="F12:F17" si="3">VLOOKUP(B12,$AA$4:$AN$36,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" ref="G12:G17" si="4">VLOOKUP(B12,$AA$4:$AN$36,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" ref="H12:H17" si="5">VLOOKUP(B12,$AA$4:$AN$36,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" ref="I12:I17" si="6">VLOOKUP(B12,$AA$4:$AN$36,10,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
       <c r="AP12" s="43"/>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
@@ -9822,53 +10275,53 @@
     </row>
     <row r="13" spans="1:70" ht="25.5">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>285</v>
       </c>
       <c r="C13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="G13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="H13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="I13" t="e">
-        <f>VLOOKUP(B13,$AA$4:$AN$36,10,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
       <c r="AP13" s="43"/>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
@@ -9888,37 +10341,37 @@
     </row>
     <row r="14" spans="1:70" ht="25.5">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>286</v>
       </c>
       <c r="C14" t="e">
-        <f t="shared" ref="C14:C18" si="11">VLOOKUP(B14,$AA$4:$AN$36,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D14" t="e">
-        <f t="shared" ref="D14:D18" si="12">VLOOKUP(B14,$AA$4:$AN$36,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E14" t="e">
-        <f t="shared" ref="E14:E18" si="13">VLOOKUP(B14,$AA$4:$AN$36,5,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F14" t="e">
-        <f t="shared" ref="F14:F17" si="14">VLOOKUP(B14,$AA$4:$AN$36,6,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="G14" t="e">
-        <f t="shared" ref="G14:G18" si="15">VLOOKUP(B14,$AA$4:$AN$36,7,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="H14" t="e">
-        <f t="shared" ref="H14:H18" si="16">VLOOKUP(B14,$AA$4:$AN$36,8,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="I14" t="e">
-        <f t="shared" ref="I14:I18" si="17">VLOOKUP(B14,$AA$4:$AN$36,10,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="O14" s="43"/>
@@ -9954,37 +10407,37 @@
     </row>
     <row r="15" spans="1:70" ht="25.5">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>287</v>
       </c>
       <c r="C15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E15" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F15" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="G15" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="H15" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="I15" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="O15" s="43"/>
@@ -9993,10 +10446,10 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -10018,39 +10471,39 @@
       <c r="BD15" s="10"/>
       <c r="BE15" s="10"/>
     </row>
-    <row r="16" spans="1:70" ht="25.5">
+    <row r="16" spans="1:70">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>288</v>
       </c>
       <c r="C16" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D16" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E16" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F16" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="G16" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="H16" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="I16" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="O16" s="43"/>
@@ -10059,10 +10512,10 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -10084,39 +10537,39 @@
       <c r="BD16" s="10"/>
       <c r="BE16" s="10"/>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:57" ht="25.5">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>289</v>
       </c>
       <c r="C17" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D17" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E17" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F17" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="G17" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="H17" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="I17" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="O17" s="43"/>
@@ -10125,10 +10578,10 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -10150,51 +10603,19 @@
       <c r="BD17" s="10"/>
       <c r="BE17" s="10"/>
     </row>
-    <row r="18" spans="1:57" ht="25.5">
-      <c r="A18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" t="e">
-        <f>VLOOKUP(B18,$AA$4:$AN$36,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H18" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I18" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
+    <row r="18" spans="1:57">
+      <c r="A18" s="1"/>
+      <c r="B18" s="43"/>
       <c r="O18" s="43"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -10214,7 +10635,7 @@
       <c r="BB18" s="10"/>
       <c r="BC18" s="10"/>
       <c r="BD18" s="10"/>
-      <c r="BE18" s="10"/>
+      <c r="BE18" s="1"/>
     </row>
     <row r="19" spans="1:57">
       <c r="A19" s="1"/>
@@ -10248,12 +10669,12 @@
       <c r="BB19" s="10"/>
       <c r="BC19" s="10"/>
       <c r="BD19" s="10"/>
-      <c r="BE19" s="1"/>
+      <c r="BE19" s="10"/>
     </row>
     <row r="20" spans="1:57">
       <c r="A20" s="1"/>
-      <c r="B20" s="43"/>
-      <c r="O20" s="43"/>
+      <c r="B20" s="45"/>
+      <c r="O20" s="45"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -10267,7 +10688,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AP20" s="43"/>
+      <c r="AP20" s="45"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
@@ -10378,25 +10799,25 @@
     </row>
     <row r="24" spans="1:57" ht="25.5">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C24" t="e">
-        <f>VLOOKUP(B24,$AA$4:$AN$36,7,FALSE)</f>
+        <f t="shared" ref="C24:C40" si="7">VLOOKUP(B24,$AA$4:$AN$36,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D24" t="e">
-        <f>VLOOKUP(B24,$AA$4:$AN$36,8,FALSE)</f>
+        <f t="shared" ref="D24:D40" si="8">VLOOKUP(B24,$AA$4:$AN$36,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <f>VLOOKUP(B24,$AA$4:$AN$36,9,FALSE)</f>
+        <f t="shared" ref="E24:E40" si="9">VLOOKUP(B24,$AA$4:$AN$36,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F24" t="e">
-        <f>VLOOKUP(B24,$AA$4:$AN$36,10,FALSE)</f>
+        <f t="shared" ref="F24:F40" si="10">VLOOKUP(B24,$AA$4:$AN$36,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AP24" s="43"/>
@@ -10418,25 +10839,25 @@
     </row>
     <row r="25" spans="1:57" ht="25.5">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25" t="e">
-        <f t="shared" ref="C25:C40" si="18">VLOOKUP(B25,$AA$4:$AN$36,7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D25" t="e">
-        <f t="shared" ref="D25:D40" si="19">VLOOKUP(B25,$AA$4:$AN$36,8,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="E25" t="e">
-        <f t="shared" ref="E25:E40" si="20">VLOOKUP(B25,$AA$4:$AN$36,9,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="F25" t="e">
-        <f t="shared" ref="F25:F40" si="21">VLOOKUP(B25,$AA$4:$AN$36,10,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AP25" s="43"/>
@@ -10458,25 +10879,25 @@
     </row>
     <row r="26" spans="1:57" ht="25.5">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C26" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D26" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="E26" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="F26" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AP26" s="43"/>
@@ -10498,3150 +10919,3188 @@
     </row>
     <row r="27" spans="1:57" ht="25.5">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C27" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D27" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="E27" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="F27" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:57">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C28" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D28" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="E28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="F28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:57" ht="25.5">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D29" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="E29" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="F29" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:57">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D30" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="E30" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="F30" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:57" ht="25.5">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D31" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="E31" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="F31" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:57" ht="25.5">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D32" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F32" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="25.5">
+      <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="C32" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D32" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E32" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F32" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="25.5">
-      <c r="A33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="44" t="s">
+      <c r="C33" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D33" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F33" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="25.5">
+      <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="C33" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="25.5">
-      <c r="A34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="44" t="s">
+      <c r="C34" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D34" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E34" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F34" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="25.5">
+      <c r="A35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="C34" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D34" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E34" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F34" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="25.5">
-      <c r="A35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="44" t="s">
+      <c r="C35" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D35" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F35" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="25.5">
+      <c r="A36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="C35" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D35" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E35" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F35" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="25.5">
-      <c r="A36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>303</v>
-      </c>
       <c r="C36" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D36" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="E36" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="F36" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="25.5">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="25.5">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C37" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D37" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="E37" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="F37" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="25.5">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="25.5">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D38" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E38" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F38" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="25.5">
+      <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="C38" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="25.5">
-      <c r="A39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="44" t="s">
+      <c r="C39" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D39" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E39" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F39" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="25.5">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="C39" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D39" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E39" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F39" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="25.5">
-      <c r="A40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>359</v>
-      </c>
       <c r="C40" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D40" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="E40" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="F40" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="44"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="43"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="43"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="43"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
-      <c r="B45" s="43"/>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="B45" s="45"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
-      <c r="B46" s="43"/>
-    </row>
-    <row r="47" spans="1:13" ht="46.5">
-      <c r="A47" s="15" t="s">
+      <c r="B46" s="45"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1"/>
+      <c r="B47" s="45"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1"/>
+      <c r="B48" s="45"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1"/>
+      <c r="B49" s="43"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1"/>
+      <c r="B50" s="43"/>
+    </row>
+    <row r="51" spans="1:13" ht="46.5">
+      <c r="A51" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="43"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" t="s">
-        <v>54</v>
-      </c>
-      <c r="J48" t="s">
-        <v>55</v>
-      </c>
-      <c r="K48" t="s">
-        <v>15</v>
-      </c>
-      <c r="L48" t="s">
-        <v>39</v>
-      </c>
-      <c r="M48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="25.5">
-      <c r="A49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="C49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="25.5">
-      <c r="A50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="C50" t="e">
-        <f t="shared" ref="C50:C95" si="22">VLOOKUP(B50,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D50" t="e">
-        <f t="shared" ref="D50:D95" si="23">VLOOKUP(B50,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E50" t="e">
-        <f t="shared" ref="E50:E95" si="24">VLOOKUP(B50,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F50" t="e">
-        <f t="shared" ref="F50:F95" si="25">VLOOKUP(B50,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G50" t="e">
-        <f t="shared" ref="G50:G95" si="26">VLOOKUP(B50,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H50" t="e">
-        <f t="shared" ref="H50:H95" si="27">VLOOKUP(B50,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I50" t="e">
-        <f t="shared" ref="I50:I96" si="28">VLOOKUP(B50,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J50" t="e">
-        <f t="shared" ref="J50:J95" si="29">VLOOKUP(B50,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K50" t="e">
-        <f t="shared" ref="K50:K95" si="30">VLOOKUP(B50,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L50" t="e">
-        <f t="shared" ref="L50:L95" si="31">VLOOKUP(B50,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M50" t="e">
-        <f t="shared" ref="M50:M95" si="32">VLOOKUP(B50,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="C51" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D51" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E51" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F51" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G51" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H51" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I51" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J51" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K51" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L51" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M51" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
+      <c r="B51" s="43"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="C52" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D52" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E52" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F52" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G52" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H52" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I52" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J52" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K52" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L52" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M52" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" t="s">
+        <v>39</v>
+      </c>
+      <c r="M52" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="25.5">
       <c r="A53" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C53" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="C53:C99" si="11">VLOOKUP(B53,$AP$4:$BE$26,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D53" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="D53:D99" si="12">VLOOKUP(B53,$AP$4:$BE$26,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E53" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="E53:E99" si="13">VLOOKUP(B53,$AP$4:$BE$26,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F53" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="F53:F99" si="14">VLOOKUP(B53,$AP$4:$BE$26,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G53" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="G53:G99" si="15">VLOOKUP(B53,$AP$4:$BE$26,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H53" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="H53:H99" si="16">VLOOKUP(B53,$AP$4:$BE$26,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I53" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="I53:I99" si="17">VLOOKUP(B53,$AP$4:$BE$26,12,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J53" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="J53:J99" si="18">VLOOKUP(B53,$AP$4:$BE$26,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K53" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="K53:K99" si="19">VLOOKUP(B53,$AP$4:$BE$26,13,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L53" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="L53:L99" si="20">VLOOKUP(B53,$AP$4:$BE$26,16,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M53" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="M53:M99" si="21">VLOOKUP(B53,$AP$4:$BE$26,15,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="25.5">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C54" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D54" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E54" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F54" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G54" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H54" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I54" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K54" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L54" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M54" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="25.5">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C55" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D55" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E55" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F55" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G55" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H55" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I55" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J55" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K55" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L55" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M55" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="25.5">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="C56" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D56" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E56" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F56" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G56" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H56" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I56" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J56" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K56" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L56" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M56" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="25.5">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C57" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D57" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E57" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F57" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G57" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H57" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I57" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J57" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K57" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L57" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M57" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="25.5">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C58" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D58" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E58" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F58" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G58" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H58" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I58" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J58" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K58" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L58" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M58" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="25.5">
       <c r="A59" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C59" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D59" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E59" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F59" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G59" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H59" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I59" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J59" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K59" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L59" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M59" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="25.5">
       <c r="A60" s="1" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C60" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D60" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E60" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F60" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G60" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H60" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I60" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J60" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K60" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L60" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M60" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="25.5">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C61" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D61" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E61" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F61" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G61" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H61" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I61" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J61" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K61" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L61" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M61" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="25.5">
       <c r="A62" s="1" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C62" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D62" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E62" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F62" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G62" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H62" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I62" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J62" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K62" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L62" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="25.5">
       <c r="A63" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C63" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D63" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E63" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F63" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G63" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H63" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I63" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J63" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K63" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L63" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M63" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="25.5">
       <c r="A64" s="1" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C64" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D64" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E64" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F64" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G64" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H64" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I64" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J64" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K64" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L64" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M64" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="25.5">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C65" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D65" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E65" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F65" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G65" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H65" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I65" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J65" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K65" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L65" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M65" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="25.5">
       <c r="A66" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C66" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D66" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E66" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F66" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G66" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H66" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I66" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J66" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K66" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L66" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M66" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="25.5">
       <c r="A67" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C67" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D67" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E67" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F67" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G67" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H67" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I67" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J67" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K67" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L67" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M67" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="25.5">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C68" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D68" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E68" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F68" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G68" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H68" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I68" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J68" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K68" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L68" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M68" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="25.5">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C69" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D69" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E69" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F69" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G69" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H69" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I69" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J69" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K69" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L69" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M69" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="25.5">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C70" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D70" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E70" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F70" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G70" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H70" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I70" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J70" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K70" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L70" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M70" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="25.5">
       <c r="A71" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C71" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D71" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E71" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F71" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G71" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H71" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I71" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J71" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K71" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L71" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M71" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="25.5">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C72" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D72" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E72" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F72" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G72" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H72" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I72" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J72" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K72" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L72" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M72" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="25.5">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C73" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D73" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E73" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F73" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G73" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H73" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I73" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J73" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K73" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L73" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M73" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="25.5">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C74" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D74" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E74" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F74" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G74" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H74" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I74" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J74" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K74" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L74" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M74" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="38.25">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="25.5">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C75" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D75" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E75" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F75" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G75" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H75" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I75" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J75" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K75" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L75" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M75" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="25.5">
       <c r="A76" s="1" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C76" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D76" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F76" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G76" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H76" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I76" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J76" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K76" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L76" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M76" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="25.5">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C77" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D77" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E77" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F77" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G77" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H77" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I77" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J77" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K77" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L77" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M77" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="25.5">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C78" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D78" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E78" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F78" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G78" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H78" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I78" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K78" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L78" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M78" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="25.5">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="38.25">
       <c r="A79" s="1" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C79" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D79" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E79" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F79" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G79" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H79" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I79" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J79" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K79" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L79" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M79" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="25.5">
       <c r="A80" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C80" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D80" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E80" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F80" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G80" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I80" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J80" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K80" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L80" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M80" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="25.5">
       <c r="A81" s="1" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C81" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D81" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E81" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F81" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G81" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H81" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J81" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K81" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L81" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M81" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="25.5">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C82" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D82" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E82" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F82" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G82" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H82" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I82" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K82" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L82" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M82" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="25.5">
       <c r="A83" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C83" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D83" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E83" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F83" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G83" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H83" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I83" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J83" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L83" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M83" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="25.5">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C84" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D84" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E84" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F84" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G84" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H84" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I84" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J84" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K84" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L84" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M84" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="25.5">
       <c r="A85" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C85" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D85" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E85" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F85" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G85" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H85" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I85" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J85" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K85" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L85" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M85" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="25.5">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C86" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D86" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E86" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F86" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G86" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H86" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I86" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J86" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K86" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L86" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M86" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="25.5">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C87" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D87" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E87" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F87" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G87" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H87" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I87" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J87" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K87" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L87" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M87" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="25.5">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C88" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D88" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E88" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F88" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G88" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H88" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I88" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J88" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K88" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L88" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M88" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="25.5">
       <c r="A89" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C89" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D89" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E89" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F89" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G89" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H89" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I89" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J89" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K89" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L89" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M89" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="25.5">
       <c r="A90" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C90" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D90" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E90" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F90" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G90" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H90" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I90" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J90" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K90" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L90" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M90" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="25.5">
       <c r="A91" s="1" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C91" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D91" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E91" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F91" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G91" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H91" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I91" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J91" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K91" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L91" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M91" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="25.5">
       <c r="A92" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C92" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D92" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E92" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F92" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G92" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H92" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I92" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J92" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K92" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L92" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M92" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="25.5">
       <c r="A93" s="1" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C93" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D93" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E93" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="F93" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G93" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="H93" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="I93" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="J93" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="K93" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="L93" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="M93" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="25.5">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B94" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="C94" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D94" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E94" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F94" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G94" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H94" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I94" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J94" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K94" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L94" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M94" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C95" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D95" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E95" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F95" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G95" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H95" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I95" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J95" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K95" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L95" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M95" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="25.5">
+      <c r="A96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="C96" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D96" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E96" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F96" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G96" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H96" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I96" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J96" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K96" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L96" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M96" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="25.5">
+      <c r="A97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="C97" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D97" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E97" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F97" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G97" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H97" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I97" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J97" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K97" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L97" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M97" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="25.5">
+      <c r="A98" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C98" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D98" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E98" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F98" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G98" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H98" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I98" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J98" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K98" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L98" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M98" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="25.5">
+      <c r="A99" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="C94" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D94" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E94" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F94" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G94" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H94" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I94" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J94" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K94" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L94" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M94" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="25.5">
-      <c r="A95" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B95" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="C95" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D95" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E95" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F95" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G95" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H95" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I95" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J95" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K95" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L95" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M95" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="1"/>
-      <c r="B96" s="43"/>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="1"/>
-      <c r="B97" s="43"/>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="1"/>
-      <c r="B98" s="43"/>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="1"/>
-      <c r="B99" s="43"/>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="C99" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D99" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E99" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F99" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G99" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H99" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I99" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J99" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K99" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L99" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M99" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1"/>
       <c r="B100" s="43"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:13">
       <c r="A101" s="1"/>
       <c r="B101" s="43"/>
     </row>
-    <row r="102" spans="1:10" ht="46.5">
-      <c r="A102" s="15" t="s">
-        <v>40</v>
-      </c>
+    <row r="102" spans="1:13">
+      <c r="A102" s="1"/>
       <c r="B102" s="43"/>
     </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" t="s">
-        <v>41</v>
-      </c>
-      <c r="D103" t="s">
-        <v>42</v>
-      </c>
-      <c r="E103" t="s">
-        <v>43</v>
-      </c>
-      <c r="F103" t="s">
-        <v>44</v>
-      </c>
-      <c r="G103" t="s">
-        <v>56</v>
-      </c>
-      <c r="H103" t="s">
-        <v>45</v>
-      </c>
-      <c r="I103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J103" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="25.5">
-      <c r="A104" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="C104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$16,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="25.5">
-      <c r="A105" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B105" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="C105" t="e">
-        <f t="shared" ref="C105:C107" si="33">VLOOKUP(B105,$BG$4:$BR$16,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D105" t="e">
-        <f t="shared" ref="D105:D107" si="34">VLOOKUP(B105,$BG$4:$BR$6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E105" t="e">
-        <f t="shared" ref="E105:E107" si="35">VLOOKUP(B105,$BG$4:$BR$6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F105" t="e">
-        <f t="shared" ref="F105:F107" si="36">VLOOKUP(B105,$BG$4:$BR$6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G105" t="e">
-        <f t="shared" ref="G105:G107" si="37">VLOOKUP(B105,$BG$4:$BR$6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H105" t="e">
-        <f t="shared" ref="H105:H107" si="38">VLOOKUP(B105,$BG$4:$BR$6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I105" t="e">
-        <f t="shared" ref="I105:I107" si="39">VLOOKUP(B105,$BG$4:$BR$6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J105" t="e">
-        <f t="shared" ref="J105:J107" si="40">VLOOKUP(B105,$BG$4:$BR$6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="25.5">
-      <c r="A106" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B106" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="C106" t="e">
-        <f t="shared" si="33"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D106" t="e">
-        <f t="shared" si="34"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E106" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F106" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G106" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H106" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I106" t="e">
-        <f t="shared" si="39"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J106" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="38.25">
-      <c r="A107" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B107" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="C107" t="e">
-        <f t="shared" si="33"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D107" t="e">
-        <f t="shared" si="34"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E107" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F107" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G107" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H107" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I107" t="e">
-        <f t="shared" si="39"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J107" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+    <row r="103" spans="1:13">
+      <c r="A103" s="1"/>
+      <c r="B103" s="43"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="1"/>
+      <c r="B104" s="43"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="1"/>
+      <c r="B105" s="45"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="1"/>
+      <c r="B106" s="45"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="1"/>
+      <c r="B107" s="45"/>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1"/>
-      <c r="B108" s="43"/>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="B108" s="45"/>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1"/>
-      <c r="B109" s="43"/>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="B109" s="45"/>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1"/>
       <c r="B110" s="43"/>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="1"/>
+    <row r="111" spans="1:13" ht="46.5">
+      <c r="A111" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="B111" s="43"/>
     </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="1"/>
-      <c r="B112" s="43"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="43"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="43"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="43"/>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1"/>
-      <c r="B116" s="43"/>
-    </row>
-    <row r="117" spans="1:2">
+    <row r="112" spans="1:13">
+      <c r="A112" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" t="s">
+        <v>44</v>
+      </c>
+      <c r="G112" t="s">
+        <v>56</v>
+      </c>
+      <c r="H112" t="s">
+        <v>45</v>
+      </c>
+      <c r="I112" t="s">
+        <v>57</v>
+      </c>
+      <c r="J112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="25.5">
+      <c r="A113" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B113" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="C113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$15,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,10,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,11,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,12,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="25.5">
+      <c r="A114" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B114" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" t="e">
+        <f>VLOOKUP(B114,$BG$4:$BR$15,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D114" t="e">
+        <f t="shared" ref="D114:D116" si="22">VLOOKUP(B114,$BG$4:$BR$6,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E114" t="e">
+        <f t="shared" ref="E114:E116" si="23">VLOOKUP(B114,$BG$4:$BR$6,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F114" t="e">
+        <f t="shared" ref="F114:F116" si="24">VLOOKUP(B114,$BG$4:$BR$6,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G114" t="e">
+        <f t="shared" ref="G114:G116" si="25">VLOOKUP(B114,$BG$4:$BR$6,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H114" t="e">
+        <f t="shared" ref="H114:H116" si="26">VLOOKUP(B114,$BG$4:$BR$6,10,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I114" t="e">
+        <f t="shared" ref="I114:I116" si="27">VLOOKUP(B114,$BG$4:$BR$6,11,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J114" t="e">
+        <f t="shared" ref="J114:J116" si="28">VLOOKUP(B114,$BG$4:$BR$6,12,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="25.5">
+      <c r="A115" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B115" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="C115" t="e">
+        <f>VLOOKUP(B115,$BG$4:$BR$15,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D115" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E115" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F115" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G115" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H115" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I115" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J115" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="38.25">
+      <c r="A116" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="C116" t="e">
+        <f>VLOOKUP(B116,$BG$4:$BR$15,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D116" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E116" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F116" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G116" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H116" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I116" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J116" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1"/>
       <c r="B117" s="43"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:10">
       <c r="A118" s="1"/>
       <c r="B118" s="43"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:10">
       <c r="A119" s="1"/>
       <c r="B119" s="43"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:10">
       <c r="A120" s="1"/>
       <c r="B120" s="43"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:10">
       <c r="A121" s="1"/>
       <c r="B121" s="43"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:10">
       <c r="A122" s="1"/>
       <c r="B122" s="43"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:10">
       <c r="A123" s="1"/>
       <c r="B123" s="43"/>
     </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1"/>
+      <c r="B124" s="43"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="1"/>
+      <c r="B125" s="43"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="1"/>
+      <c r="B126" s="43"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1"/>
+      <c r="B127" s="43"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1"/>
+      <c r="B128" s="43"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="43"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="43"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="43"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="43"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AK2:AN2"/>
     <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="AR2:AV2"/>
     <mergeCell ref="AW2:BA2"/>
@@ -13650,8 +14109,6 @@
     <mergeCell ref="BI2:BO2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
